--- a/biology/Botanique/Marchantiophyta_(classification_phylogénétique)/Marchantiophyta_(classification_phylogénétique).xlsx
+++ b/biology/Botanique/Marchantiophyta_(classification_phylogénétique)/Marchantiophyta_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marchantiophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Marchantiophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Marchantiophyta (Hepaticophyta, Hépatiques, Marchantiophytes), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marchantiophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Marchantiophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -704,7 +718,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marchantiophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Marchantiophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -723,6 +737,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -730,7 +746,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marchantiophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Marchantiophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -750,13 +766,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sources bibliographiques de référence
-B. Crandall-Stotler, R. E. Stotler et D. G. Long : « Phylogeny and Classification of the Marchantiophyta », Edinburgh Journal of Botany, vol. 66, n°1, 2009, pp. 155-198
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B. Crandall-Stotler, R. E. Stotler et D. G. Long : « Phylogeny and Classification of the Marchantiophyta », Edinburgh Journal of Botany, vol. 66, n°1, 2009, pp. 155-198
 Yin-Long Qiu et al. (2006) « The deepest divergences in land plants inferred from phylogenomic evidence », PNAS, 103 (42), pp. 15511-15516
-Jonathan Shaw et Karen Renzaglia (2004) « Phylogeny and diversification of Bryophytes », American Journal of Botany, 91 (10), pp. 1557–1581
-Autres sources bibliographiques
-Sources internet
-LiToL: Assembling the Liverwort Tree of Life
+Jonathan Shaw et Karen Renzaglia (2004) « Phylogeny and diversification of Bryophytes », American Journal of Botany, 91 (10), pp. 1557–1581</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marchantiophyta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marchantiophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>LiToL: Assembling the Liverwort Tree of Life
 « Evolution of land plants » sur l' Angiosperm Phylogeny Website</t>
         </is>
       </c>
